--- a/106-2教科書/01.書單/05.驗書作業/106-2日校教科用書_公告用.xlsx
+++ b/106-2教科書/01.書單/05.驗書作業/106-2日校教科用書_公告用.xlsx
@@ -1110,7 +1110,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1126,6 +1126,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1204,17 +1210,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1553,9 +1559,9 @@
   <sheetPr codeName="工作表7" filterMode="1"/>
   <dimension ref="A1:R412"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H225" sqref="H225"/>
+      <selection pane="bottomLeft" activeCell="E251" sqref="E251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1564,11 +1570,11 @@
     <col min="3" max="3" width="8.875" customWidth="1"/>
     <col min="4" max="4" width="8.375" customWidth="1"/>
     <col min="5" max="5" width="31.75" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.375" customWidth="1"/>
-    <col min="10" max="10" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="17.5" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="21.375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="11.375" customWidth="1"/>
     <col min="12" max="17" width="9.5" customWidth="1"/>
     <col min="18" max="18" width="8.75" style="10"/>
@@ -2589,15 +2595,15 @@
       <c r="J32" s="3">
         <v>145</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="K32" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
       <c r="R32" s="3">
         <v>1</v>
       </c>
@@ -4104,15 +4110,15 @@
       <c r="J79" s="3">
         <v>220</v>
       </c>
-      <c r="K79" s="13" t="s">
+      <c r="K79" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="L79" s="12"/>
-      <c r="M79" s="12"/>
-      <c r="N79" s="12"/>
-      <c r="O79" s="12"/>
-      <c r="P79" s="12"/>
-      <c r="Q79" s="12"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="11"/>
       <c r="R79" s="3">
         <v>1</v>
       </c>
@@ -4412,15 +4418,15 @@
       <c r="J88" s="3">
         <v>228</v>
       </c>
-      <c r="K88" s="13" t="s">
+      <c r="K88" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="L88" s="12"/>
-      <c r="M88" s="12"/>
-      <c r="N88" s="12"/>
-      <c r="O88" s="12"/>
-      <c r="P88" s="12"/>
-      <c r="Q88" s="12"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+      <c r="O88" s="11"/>
+      <c r="P88" s="11"/>
+      <c r="Q88" s="11"/>
       <c r="R88" s="3">
         <v>1</v>
       </c>
@@ -8750,17 +8756,17 @@
       <c r="J225" s="3">
         <v>160</v>
       </c>
-      <c r="K225" s="11" t="s">
+      <c r="K225" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="L225" s="12" t="s">
+      <c r="L225" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="M225" s="12"/>
-      <c r="N225" s="12"/>
-      <c r="O225" s="12"/>
-      <c r="P225" s="12"/>
-      <c r="Q225" s="12"/>
+      <c r="M225" s="11"/>
+      <c r="N225" s="11"/>
+      <c r="O225" s="11"/>
+      <c r="P225" s="11"/>
+      <c r="Q225" s="11"/>
       <c r="R225" s="3">
         <v>1</v>
       </c>
@@ -8920,15 +8926,15 @@
       <c r="J230" s="3">
         <v>230</v>
       </c>
-      <c r="K230" s="11" t="s">
+      <c r="K230" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="L230" s="12"/>
-      <c r="M230" s="12"/>
-      <c r="N230" s="12"/>
-      <c r="O230" s="12"/>
-      <c r="P230" s="12"/>
-      <c r="Q230" s="12"/>
+      <c r="L230" s="11"/>
+      <c r="M230" s="11"/>
+      <c r="N230" s="11"/>
+      <c r="O230" s="11"/>
+      <c r="P230" s="11"/>
+      <c r="Q230" s="11"/>
       <c r="R230" s="3">
         <v>1</v>
       </c>
@@ -8960,15 +8966,15 @@
       <c r="J231" s="3">
         <v>335</v>
       </c>
-      <c r="K231" s="11" t="s">
+      <c r="K231" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="L231" s="12"/>
-      <c r="M231" s="12"/>
-      <c r="N231" s="12"/>
-      <c r="O231" s="12"/>
-      <c r="P231" s="12"/>
-      <c r="Q231" s="12"/>
+      <c r="L231" s="11"/>
+      <c r="M231" s="11"/>
+      <c r="N231" s="11"/>
+      <c r="O231" s="11"/>
+      <c r="P231" s="11"/>
+      <c r="Q231" s="11"/>
       <c r="R231" s="3">
         <v>1</v>
       </c>
@@ -9588,23 +9594,23 @@
       <c r="J251" s="3">
         <v>145</v>
       </c>
-      <c r="K251" s="11" t="s">
+      <c r="K251" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="L251" s="12" t="s">
+      <c r="L251" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="M251" s="12" t="s">
+      <c r="M251" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="N251" s="12" t="s">
+      <c r="N251" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="O251" s="12" t="s">
+      <c r="O251" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="P251" s="12"/>
-      <c r="Q251" s="12"/>
+      <c r="P251" s="11"/>
+      <c r="Q251" s="11"/>
       <c r="R251" s="3">
         <v>1</v>
       </c>
@@ -9672,15 +9678,15 @@
       <c r="J253" s="5">
         <v>240</v>
       </c>
-      <c r="K253" s="11" t="s">
+      <c r="K253" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="L253" s="12"/>
-      <c r="M253" s="12"/>
-      <c r="N253" s="12"/>
-      <c r="O253" s="12"/>
-      <c r="P253" s="12"/>
-      <c r="Q253" s="12"/>
+      <c r="L253" s="11"/>
+      <c r="M253" s="11"/>
+      <c r="N253" s="11"/>
+      <c r="O253" s="11"/>
+      <c r="P253" s="11"/>
+      <c r="Q253" s="11"/>
       <c r="R253" s="3">
         <v>1</v>
       </c>
@@ -9712,25 +9718,25 @@
       <c r="J254" s="5">
         <v>145</v>
       </c>
-      <c r="K254" s="11" t="s">
+      <c r="K254" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="L254" s="12" t="s">
+      <c r="L254" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="M254" s="12" t="s">
+      <c r="M254" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="N254" s="12" t="s">
+      <c r="N254" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="O254" s="12" t="s">
+      <c r="O254" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="P254" s="12" t="s">
+      <c r="P254" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="Q254" s="12" t="s">
+      <c r="Q254" s="13" t="s">
         <v>322</v>
       </c>
       <c r="R254" s="3">
@@ -11404,15 +11410,15 @@
       <c r="J307" s="5">
         <v>160</v>
       </c>
-      <c r="K307" s="14" t="s">
+      <c r="K307" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="L307" s="12"/>
-      <c r="M307" s="12"/>
-      <c r="N307" s="12"/>
-      <c r="O307" s="12"/>
-      <c r="P307" s="12"/>
-      <c r="Q307" s="12"/>
+      <c r="L307" s="11"/>
+      <c r="M307" s="11"/>
+      <c r="N307" s="11"/>
+      <c r="O307" s="11"/>
+      <c r="P307" s="11"/>
+      <c r="Q307" s="11"/>
       <c r="R307" s="3">
         <v>1</v>
       </c>
@@ -11448,17 +11454,17 @@
       <c r="J308" s="5">
         <v>230</v>
       </c>
-      <c r="K308" s="14" t="s">
+      <c r="K308" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="L308" s="5" t="s">
+      <c r="L308" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="M308" s="12"/>
-      <c r="N308" s="12"/>
-      <c r="O308" s="12"/>
-      <c r="P308" s="12"/>
-      <c r="Q308" s="12"/>
+      <c r="M308" s="11"/>
+      <c r="N308" s="11"/>
+      <c r="O308" s="11"/>
+      <c r="P308" s="11"/>
+      <c r="Q308" s="11"/>
       <c r="R308" s="3">
         <v>1</v>
       </c>
@@ -11494,15 +11500,15 @@
       <c r="J309" s="5">
         <v>185</v>
       </c>
-      <c r="K309" s="14" t="s">
+      <c r="K309" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="L309" s="12"/>
-      <c r="M309" s="12"/>
-      <c r="N309" s="12"/>
-      <c r="O309" s="12"/>
-      <c r="P309" s="12"/>
-      <c r="Q309" s="12"/>
+      <c r="L309" s="11"/>
+      <c r="M309" s="11"/>
+      <c r="N309" s="11"/>
+      <c r="O309" s="11"/>
+      <c r="P309" s="11"/>
+      <c r="Q309" s="11"/>
       <c r="R309" s="3">
         <v>1</v>
       </c>
@@ -11598,17 +11604,17 @@
       <c r="J312" s="5">
         <v>335</v>
       </c>
-      <c r="K312" s="14" t="s">
+      <c r="K312" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="L312" s="5" t="s">
+      <c r="L312" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="M312" s="12"/>
-      <c r="N312" s="12"/>
-      <c r="O312" s="12"/>
-      <c r="P312" s="12"/>
-      <c r="Q312" s="12"/>
+      <c r="M312" s="11"/>
+      <c r="N312" s="11"/>
+      <c r="O312" s="11"/>
+      <c r="P312" s="11"/>
+      <c r="Q312" s="11"/>
       <c r="R312" s="3">
         <v>1</v>
       </c>
@@ -11644,15 +11650,15 @@
       <c r="J313" s="5">
         <v>278</v>
       </c>
-      <c r="K313" s="14" t="s">
+      <c r="K313" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="L313" s="12"/>
-      <c r="M313" s="12"/>
-      <c r="N313" s="12"/>
-      <c r="O313" s="12"/>
-      <c r="P313" s="12"/>
-      <c r="Q313" s="12"/>
+      <c r="L313" s="11"/>
+      <c r="M313" s="11"/>
+      <c r="N313" s="11"/>
+      <c r="O313" s="11"/>
+      <c r="P313" s="11"/>
+      <c r="Q313" s="11"/>
       <c r="R313" s="3">
         <v>1</v>
       </c>
